--- a/Ice Cream sales (Simple Linear Regression).xlsx
+++ b/Ice Cream sales (Simple Linear Regression).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C11A151-07E8-4C93-BD40-D8063D9E1E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9B1D2-23D9-448D-8D6E-EF852A4B0170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -271,8 +271,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +570,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$25:$B$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>88.097474523704008</c:v>
@@ -2166,7 +2168,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2200,7 @@
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>0.86279842221775349</v>
       </c>
     </row>
@@ -2206,7 +2208,7 @@
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="16">
         <v>0.74442111738144479</v>
       </c>
     </row>
@@ -2214,7 +2216,7 @@
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>0.73022229056930277</v>
       </c>
     </row>
@@ -2222,7 +2224,7 @@
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="16">
         <v>6.8870814506074201</v>
       </c>
     </row>
@@ -2264,16 +2266,16 @@
       <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>2486.775963668586</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>2486.775963668586</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>52.428353921808686</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>9.8378944530580742E-7</v>
       </c>
     </row>
@@ -2284,14 +2286,14 @@
       <c r="B13" s="12">
         <v>18</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="16">
         <v>853.77403633141444</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="16">
         <v>47.431890907300804</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -2300,12 +2302,12 @@
       <c r="B14" s="13">
         <v>19</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="18">
         <v>3340.55</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2342,25 +2344,25 @@
       <c r="B17" s="15">
         <v>-33.260818195244397</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="16">
         <v>15.284894261817684</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="16">
         <v>-2.1760581149933982</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
         <v>4.3113404127958763E-2</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="16">
         <v>-65.373189432650946</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="16">
         <v>-1.1484469578378551</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="16">
         <v>-65.373189432650946</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="16">
         <v>-1.1484469578378551</v>
       </c>
     </row>
@@ -2368,28 +2370,28 @@
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="17">
         <v>1.5056860138827346</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="18">
         <v>0.20794635157753191</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="18">
         <v>7.2407426360704674</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="18">
         <v>9.8378944530580382E-7</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="18">
         <v>1.0688069406657861</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="18">
         <v>1.9425650870996831</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="18">
         <v>1.0688069406657861</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="18">
         <v>1.9425650870996831</v>
       </c>
     </row>
@@ -2414,10 +2416,10 @@
       <c r="A25" s="12">
         <v>1</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="16">
         <v>88.097474523704008</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="16">
         <v>1.9025254762959918</v>
       </c>
     </row>
@@ -2425,10 +2427,10 @@
       <c r="A26" s="12">
         <v>2</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="16">
         <v>79.966770048737246</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="16">
         <v>5.0332299512627543</v>
       </c>
     </row>
@@ -2436,10 +2438,10 @@
       <c r="A27" s="12">
         <v>3</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="16">
         <v>96.228178998670771</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="16">
         <v>10.771821001329229</v>
       </c>
     </row>
@@ -2447,10 +2449,10 @@
       <c r="A28" s="12">
         <v>4</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="16">
         <v>79.966770048737246</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="16">
         <v>-8.9667700487372457</v>
       </c>
     </row>
@@ -2458,10 +2460,10 @@
       <c r="A29" s="12">
         <v>5</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="16">
         <v>58.28489144882586</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="16">
         <v>6.71510855117414</v>
       </c>
     </row>
@@ -2469,10 +2471,10 @@
       <c r="A30" s="12">
         <v>6</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="16">
         <v>69.125830748781553</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="16">
         <v>-0.12583074878155287</v>
       </c>
     </row>
@@ -2480,10 +2482,10 @@
       <c r="A31" s="12">
         <v>7</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="16">
         <v>74.546300398759385</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="16">
         <v>-7.5463003987593851</v>
       </c>
     </row>
@@ -2491,10 +2493,10 @@
       <c r="A32" s="12">
         <v>8</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="16">
         <v>66.415595923792637</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="16">
         <v>3.5844040762073632</v>
       </c>
     </row>
@@ -2502,10 +2504,10 @@
       <c r="A33" s="12">
         <v>9</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="16">
         <v>58.28489144882586</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="16">
         <v>6.71510855117414</v>
       </c>
     </row>
@@ -2513,10 +2515,10 @@
       <c r="A34" s="12">
         <v>10</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="16">
         <v>85.387239698715106</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="16">
         <v>-4.3872396987151063</v>
       </c>
     </row>
@@ -2524,10 +2526,10 @@
       <c r="A35" s="12">
         <v>11</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="16">
         <v>85.387239698715106</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="16">
         <v>-12.387239698715106</v>
       </c>
     </row>
@@ -2535,10 +2537,10 @@
       <c r="A36" s="12">
         <v>12</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="16">
         <v>60.99512627381479</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="16">
         <v>3.0048737261852096</v>
       </c>
     </row>
@@ -2546,10 +2548,10 @@
       <c r="A37" s="12">
         <v>13</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="16">
         <v>79.966770048737246</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="16">
         <v>9.0332299512627543</v>
       </c>
     </row>
@@ -2557,10 +2559,10 @@
       <c r="A38" s="12">
         <v>14</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="16">
         <v>79.966770048737246</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="16">
         <v>-0.9667700487372457</v>
       </c>
     </row>
@@ -2568,10 +2570,10 @@
       <c r="A39" s="12">
         <v>15</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="16">
         <v>71.836065573770497</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="16">
         <v>-5.8360655737704974</v>
       </c>
     </row>
@@ -2579,10 +2581,10 @@
       <c r="A40" s="12">
         <v>16</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="16">
         <v>63.705361098803721</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="16">
         <v>-10.705361098803721</v>
       </c>
     </row>
@@ -2590,10 +2592,10 @@
       <c r="A41" s="12">
         <v>17</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="16">
         <v>74.546300398759385</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="16">
         <v>0.45369960124061492</v>
       </c>
     </row>
@@ -2601,10 +2603,10 @@
       <c r="A42" s="12">
         <v>18</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="16">
         <v>96.228178998670771</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="16">
         <v>2.7718210013292293</v>
       </c>
     </row>
@@ -2612,10 +2614,10 @@
       <c r="A43" s="12">
         <v>19</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="16">
         <v>85.387239698715106</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="16">
         <v>-4.3872396987151063</v>
       </c>
     </row>
@@ -2623,10 +2625,10 @@
       <c r="A44" s="13">
         <v>20</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="18">
         <v>82.677004873726162</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="18">
         <v>5.3229951262738382</v>
       </c>
     </row>
